--- a/data/dataPaper-I-in/arphified/Echinodermata.xlsx
+++ b/data/dataPaper-I-in/arphified/Echinodermata.xlsx
@@ -1251,76 +1251,76 @@
     <t>${catalogNumber}</t>
   </si>
   <si>
+    <t>${recordedBy}</t>
+  </si>
+  <si>
+    <t>${individualCount}</t>
+  </si>
+  <si>
+    <t>${sex}</t>
+  </si>
+  <si>
+    <t>PRESENT</t>
+  </si>
+  <si>
+    <t>${taxonName}</t>
+  </si>
+  <si>
+    <t>!references.ref</t>
+  </si>
+  <si>
+    <t>iNaturalist:${iNaturalistTaxonId}</t>
+  </si>
+  <si>
+    <t>${scientificName}</t>
+  </si>
+  <si>
+    <t>${kingdom}</t>
+  </si>
+  <si>
+    <t>${phylum}</t>
+  </si>
+  <si>
+    <t>${class}</t>
+  </si>
+  <si>
+    <t>${order}</t>
+  </si>
+  <si>
+    <t>${family}</t>
+  </si>
+  <si>
+    <t>${genus}</t>
+  </si>
+  <si>
+    <t>${subgenus}</t>
+  </si>
+  <si>
+    <t>Galiano Island</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>${locality}</t>
+  </si>
+  <si>
+    <t>${depth}</t>
+  </si>
+  <si>
+    <t>${latitude}</t>
+  </si>
+  <si>
+    <t>${longitude}</t>
+  </si>
+  <si>
     <t>Confidence: ${confidence}</t>
-  </si>
-  <si>
-    <t>${recordedBy}</t>
-  </si>
-  <si>
-    <t>${individualCount}</t>
-  </si>
-  <si>
-    <t>${sex}</t>
-  </si>
-  <si>
-    <t>PRESENT</t>
-  </si>
-  <si>
-    <t>${taxonName}</t>
-  </si>
-  <si>
-    <t>!references.ref</t>
-  </si>
-  <si>
-    <t>iNaturalist:${iNaturalistTaxonId}</t>
-  </si>
-  <si>
-    <t>${scientificName}</t>
-  </si>
-  <si>
-    <t>${kingdom}</t>
-  </si>
-  <si>
-    <t>${phylum}</t>
-  </si>
-  <si>
-    <t>${class}</t>
-  </si>
-  <si>
-    <t>${order}</t>
-  </si>
-  <si>
-    <t>${family}</t>
-  </si>
-  <si>
-    <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
-  </si>
-  <si>
-    <t>Galiano Island</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>British Columbia</t>
-  </si>
-  <si>
-    <t>${locality}</t>
-  </si>
-  <si>
-    <t>${depth}</t>
-  </si>
-  <si>
-    <t>${latitude}</t>
-  </si>
-  <si>
-    <t>${longitude}</t>
   </si>
   <si>
     <t>!references.samplingProtocol</t>
@@ -6611,301 +6611,301 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>412</v>
       </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
         <v>413</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>414</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
         <v>415</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
         <v>416</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
         <v>417</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
         <v>418</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
         <v>419</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
         <v>420</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>421</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>422</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>423</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>424</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>425</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>426</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
         <v>427</v>
       </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>428</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>429</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>430</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>431</v>
       </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
         <v>432</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
         <v>433</v>
       </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>434</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>412</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
         <v>435</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>413</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -7028,7 +7028,7 @@
         <v>36</v>
       </c>
       <c r="EO2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="EP2" t="s">
         <v>36</v>

--- a/data/dataPaper-I-in/arphified/Echinodermata.xlsx
+++ b/data/dataPaper-I-in/arphified/Echinodermata.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="451">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -1318,6 +1318,9 @@
   </si>
   <si>
     <t>${longitude}</t>
+  </si>
+  <si>
+    <t>${coordinateUncertaintyInMeters}</t>
   </si>
   <si>
     <t>Confidence: ${confidence}</t>
@@ -6860,7 +6863,7 @@
         <v>36</v>
       </c>
       <c r="CK2" t="s">
-        <v>36</v>
+        <v>435</v>
       </c>
       <c r="CL2" t="s">
         <v>36</v>
@@ -6905,7 +6908,7 @@
         <v>36</v>
       </c>
       <c r="CZ2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -6968,13 +6971,13 @@
         <v>36</v>
       </c>
       <c r="DU2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="DV2" t="s">
         <v>36</v>
       </c>
       <c r="DW2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="DX2" t="s">
         <v>36</v>
@@ -6986,13 +6989,13 @@
         <v>36</v>
       </c>
       <c r="EA2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="EB2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="EC2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="ED2" t="s">
         <v>36</v>
@@ -7001,13 +7004,13 @@
         <v>36</v>
       </c>
       <c r="EF2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="EG2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="EH2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EI2" t="s">
         <v>36</v>
@@ -7040,19 +7043,19 @@
         <v>36</v>
       </c>
       <c r="ES2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="ET2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EU2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EV2" t="s">
         <v>36</v>
       </c>
       <c r="EW2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EX2" t="s">
         <v>36</v>
@@ -7083,10 +7086,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Echinodermata.xlsx
+++ b/data/dataPaper-I-in/arphified/Echinodermata.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="461">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -162,7 +162,7 @@
     <t>hexactis</t>
   </si>
   <si>
-    <t>Species complex (Leptasterias aequalis species complex) which requires further study.</t>
+    <t>Leptasterias hexactis belongs to a species complex (Leptasterias aequalis species complex) which requires further study.</t>
   </si>
   <si>
     <t>47669</t>
@@ -243,7 +243,7 @@
     <t>Grube, 1866</t>
   </si>
   <si>
-    <t>293168</t>
+    <t>1265168</t>
   </si>
   <si>
     <t>Spinulosacea</t>
@@ -456,6 +456,9 @@
     <t>Camarodonta</t>
   </si>
   <si>
+    <t>Echinidea</t>
+  </si>
+  <si>
     <t>Odontophora</t>
   </si>
   <si>
@@ -489,7 +492,7 @@
     <t>(G.O. Sars, 1871)</t>
   </si>
   <si>
-    <t>Previously misidentified as Strongylocentrotus fragilis Jackson, 1912.</t>
+    <t>Previously misidentified as Strongylocentrotus fragilis.</t>
   </si>
   <si>
     <t>48035</t>
@@ -510,6 +513,9 @@
     <t>Scutellina</t>
   </si>
   <si>
+    <t>Scutelliformes</t>
+  </si>
+  <si>
     <t>Scutelloidea</t>
   </si>
   <si>
@@ -639,7 +645,7 @@
     <t>californicus</t>
   </si>
   <si>
-    <t>Accessioned in RBCM collections as Parastichopus californicus (Stimpson, 1857), an unaccepted synonym according to WoRMS (2021)</t>
+    <t>Accessioned in RBCM collections as Parastichopus californicus, an unaccepted synonym (WoRMS Editorial Board 2021).</t>
   </si>
   <si>
     <t>873898</t>
@@ -696,7 +702,7 @@
     <t>H.L. Clark, 1911</t>
   </si>
   <si>
-    <t>Accessioned in RBCM collections as Diamphiodia periercta (sic), a name unrecognized by WoRMS (2021)</t>
+    <t>Accessioned in RBCM collections as Diamphiodia periercta, an unrecognized name (WoRMS Editorial Board 2021).</t>
   </si>
   <si>
     <t>129228</t>
@@ -900,6 +906,15 @@
     <t>order</t>
   </si>
   <si>
+    <t>suborder</t>
+  </si>
+  <si>
+    <t>infraorder</t>
+  </si>
+  <si>
+    <t>superfamily</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
@@ -1272,7 +1287,7 @@
     <t>iNaturalist:${iNaturalistTaxonId}</t>
   </si>
   <si>
-    <t>${scientificName}</t>
+    <t>${summary.taxonName}</t>
   </si>
   <si>
     <t>${kingdom}</t>
@@ -1287,6 +1302,15 @@
     <t>${order}</t>
   </si>
   <si>
+    <t>${suborder}</t>
+  </si>
+  <si>
+    <t>${infraorder}</t>
+  </si>
+  <si>
+    <t>${superfamily}</t>
+  </si>
+  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -1296,6 +1320,9 @@
     <t>${subgenus}</t>
   </si>
   <si>
+    <t>${summary.Author}</t>
+  </si>
+  <si>
     <t>Galiano Island</t>
   </si>
   <si>
@@ -1330,6 +1357,9 @@
   </si>
   <si>
     <t>!Date:YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>!Date:HH:mm:ss</t>
   </si>
   <si>
     <t>!Date:YYYY</t>
@@ -4068,13 +4098,13 @@
         <v>36</v>
       </c>
       <c r="L23" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="M23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O23" t="s">
         <v>36</v>
@@ -4086,13 +4116,13 @@
         <v>36</v>
       </c>
       <c r="R23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S23" t="s">
         <v>36</v>
       </c>
       <c r="T23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U23" t="s">
         <v>36</v>
@@ -4104,7 +4134,7 @@
         <v>36</v>
       </c>
       <c r="X23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y23" t="s">
         <v>36</v>
@@ -4139,7 +4169,7 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
@@ -4172,13 +4202,13 @@
         <v>36</v>
       </c>
       <c r="L24" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="M24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O24" t="s">
         <v>36</v>
@@ -4190,13 +4220,13 @@
         <v>36</v>
       </c>
       <c r="R24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S24" t="s">
         <v>36</v>
       </c>
       <c r="T24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="U24" t="s">
         <v>36</v>
@@ -4243,7 +4273,7 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
@@ -4276,13 +4306,13 @@
         <v>36</v>
       </c>
       <c r="L25" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="M25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O25" t="s">
         <v>36</v>
@@ -4294,13 +4324,13 @@
         <v>36</v>
       </c>
       <c r="R25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S25" t="s">
         <v>36</v>
       </c>
       <c r="T25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U25" t="s">
         <v>36</v>
@@ -4312,7 +4342,7 @@
         <v>36</v>
       </c>
       <c r="X25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y25" t="s">
         <v>36</v>
@@ -4342,12 +4372,12 @@
         <v>36</v>
       </c>
       <c r="AH25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
@@ -4380,13 +4410,13 @@
         <v>36</v>
       </c>
       <c r="L26" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="M26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O26" t="s">
         <v>36</v>
@@ -4398,13 +4428,13 @@
         <v>36</v>
       </c>
       <c r="R26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S26" t="s">
         <v>36</v>
       </c>
       <c r="T26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U26" t="s">
         <v>36</v>
@@ -4451,7 +4481,7 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
@@ -4475,22 +4505,22 @@
         <v>144</v>
       </c>
       <c r="I27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="M27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O27" t="s">
         <v>36</v>
@@ -4502,13 +4532,13 @@
         <v>36</v>
       </c>
       <c r="R27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S27" t="s">
         <v>36</v>
       </c>
       <c r="T27" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="U27" t="s">
         <v>36</v>
@@ -4520,7 +4550,7 @@
         <v>36</v>
       </c>
       <c r="X27" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y27" t="s">
         <v>36</v>
@@ -4555,7 +4585,7 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -4573,16 +4603,16 @@
         <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I28" t="s">
         <v>36</v>
       </c>
       <c r="J28" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K28" t="s">
         <v>36</v>
@@ -4594,7 +4624,7 @@
         <v>36</v>
       </c>
       <c r="N28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O28" t="s">
         <v>36</v>
@@ -4606,13 +4636,13 @@
         <v>36</v>
       </c>
       <c r="R28" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S28" t="s">
         <v>36</v>
       </c>
       <c r="T28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="U28" t="s">
         <v>36</v>
@@ -4659,7 +4689,7 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -4677,16 +4707,16 @@
         <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I29" t="s">
         <v>36</v>
       </c>
       <c r="J29" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K29" t="s">
         <v>36</v>
@@ -4698,7 +4728,7 @@
         <v>36</v>
       </c>
       <c r="N29" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O29" t="s">
         <v>36</v>
@@ -4710,13 +4740,13 @@
         <v>36</v>
       </c>
       <c r="R29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S29" t="s">
         <v>36</v>
       </c>
       <c r="T29" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="U29" t="s">
         <v>36</v>
@@ -4728,7 +4758,7 @@
         <v>36</v>
       </c>
       <c r="X29" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Y29" t="s">
         <v>36</v>
@@ -4763,7 +4793,7 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -4781,16 +4811,16 @@
         <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I30" t="s">
         <v>36</v>
       </c>
       <c r="J30" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K30" t="s">
         <v>36</v>
@@ -4802,7 +4832,7 @@
         <v>36</v>
       </c>
       <c r="N30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O30" t="s">
         <v>36</v>
@@ -4814,13 +4844,13 @@
         <v>36</v>
       </c>
       <c r="R30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S30" t="s">
         <v>36</v>
       </c>
       <c r="T30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="U30" t="s">
         <v>36</v>
@@ -4832,7 +4862,7 @@
         <v>36</v>
       </c>
       <c r="X30" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Y30" t="s">
         <v>36</v>
@@ -4867,7 +4897,7 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -4885,16 +4915,16 @@
         <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I31" t="s">
         <v>36</v>
       </c>
       <c r="J31" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K31" t="s">
         <v>36</v>
@@ -4906,7 +4936,7 @@
         <v>36</v>
       </c>
       <c r="N31" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O31" t="s">
         <v>36</v>
@@ -4918,13 +4948,13 @@
         <v>36</v>
       </c>
       <c r="R31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="S31" t="s">
         <v>36</v>
       </c>
       <c r="T31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U31" t="s">
         <v>36</v>
@@ -4971,7 +5001,7 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -4989,16 +5019,16 @@
         <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I32" t="s">
         <v>36</v>
       </c>
       <c r="J32" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K32" t="s">
         <v>36</v>
@@ -5010,7 +5040,7 @@
         <v>36</v>
       </c>
       <c r="N32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O32" t="s">
         <v>36</v>
@@ -5022,13 +5052,13 @@
         <v>36</v>
       </c>
       <c r="R32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="S32" t="s">
         <v>36</v>
       </c>
       <c r="T32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="U32" t="s">
         <v>36</v>
@@ -5040,7 +5070,7 @@
         <v>36</v>
       </c>
       <c r="X32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Y32" t="s">
         <v>36</v>
@@ -5075,7 +5105,7 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -5093,16 +5123,16 @@
         <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I33" t="s">
         <v>36</v>
       </c>
       <c r="J33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K33" t="s">
         <v>36</v>
@@ -5114,7 +5144,7 @@
         <v>36</v>
       </c>
       <c r="N33" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O33" t="s">
         <v>36</v>
@@ -5126,13 +5156,13 @@
         <v>36</v>
       </c>
       <c r="R33" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="S33" t="s">
         <v>36</v>
       </c>
       <c r="T33" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="U33" t="s">
         <v>36</v>
@@ -5144,7 +5174,7 @@
         <v>36</v>
       </c>
       <c r="X33" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y33" t="s">
         <v>36</v>
@@ -5179,7 +5209,7 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -5197,16 +5227,16 @@
         <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I34" t="s">
         <v>36</v>
       </c>
       <c r="J34" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K34" t="s">
         <v>36</v>
@@ -5218,7 +5248,7 @@
         <v>36</v>
       </c>
       <c r="N34" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O34" t="s">
         <v>36</v>
@@ -5230,13 +5260,13 @@
         <v>36</v>
       </c>
       <c r="R34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="S34" t="s">
         <v>36</v>
       </c>
       <c r="T34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="U34" t="s">
         <v>36</v>
@@ -5283,7 +5313,7 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -5301,16 +5331,16 @@
         <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H35" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I35" t="s">
         <v>36</v>
       </c>
       <c r="J35" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K35" t="s">
         <v>36</v>
@@ -5322,7 +5352,7 @@
         <v>36</v>
       </c>
       <c r="N35" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O35" t="s">
         <v>36</v>
@@ -5334,13 +5364,13 @@
         <v>36</v>
       </c>
       <c r="R35" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="S35" t="s">
         <v>36</v>
       </c>
       <c r="T35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="U35" t="s">
         <v>36</v>
@@ -5352,7 +5382,7 @@
         <v>36</v>
       </c>
       <c r="X35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Y35" t="s">
         <v>36</v>
@@ -5387,7 +5417,7 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -5405,16 +5435,16 @@
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H36" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I36" t="s">
         <v>36</v>
       </c>
       <c r="J36" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K36" t="s">
         <v>36</v>
@@ -5426,7 +5456,7 @@
         <v>36</v>
       </c>
       <c r="N36" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O36" t="s">
         <v>36</v>
@@ -5438,13 +5468,13 @@
         <v>36</v>
       </c>
       <c r="R36" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="S36" t="s">
         <v>36</v>
       </c>
       <c r="T36" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U36" t="s">
         <v>36</v>
@@ -5486,12 +5516,12 @@
         <v>36</v>
       </c>
       <c r="AH36" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -5509,16 +5539,16 @@
         <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H37" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I37" t="s">
         <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K37" t="s">
         <v>36</v>
@@ -5530,7 +5560,7 @@
         <v>36</v>
       </c>
       <c r="N37" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O37" t="s">
         <v>36</v>
@@ -5542,13 +5572,13 @@
         <v>36</v>
       </c>
       <c r="R37" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="S37" t="s">
         <v>36</v>
       </c>
       <c r="T37" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="U37" t="s">
         <v>36</v>
@@ -5560,7 +5590,7 @@
         <v>36</v>
       </c>
       <c r="X37" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Y37" t="s">
         <v>36</v>
@@ -5595,7 +5625,7 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
@@ -5613,28 +5643,28 @@
         <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H38" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I38" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J38" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K38" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L38" t="s">
         <v>36</v>
       </c>
       <c r="M38" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N38" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O38" t="s">
         <v>36</v>
@@ -5646,13 +5676,13 @@
         <v>36</v>
       </c>
       <c r="R38" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S38" t="s">
         <v>36</v>
       </c>
       <c r="T38" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="U38" t="s">
         <v>36</v>
@@ -5664,7 +5694,7 @@
         <v>36</v>
       </c>
       <c r="X38" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Y38" t="s">
         <v>36</v>
@@ -5694,12 +5724,12 @@
         <v>36</v>
       </c>
       <c r="AH38" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -5717,28 +5747,28 @@
         <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H39" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I39" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J39" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K39" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L39" t="s">
         <v>36</v>
       </c>
       <c r="M39" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N39" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O39" t="s">
         <v>36</v>
@@ -5750,13 +5780,13 @@
         <v>36</v>
       </c>
       <c r="R39" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="S39" t="s">
         <v>36</v>
       </c>
       <c r="T39" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="U39" t="s">
         <v>36</v>
@@ -5768,7 +5798,7 @@
         <v>36</v>
       </c>
       <c r="X39" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Y39" t="s">
         <v>36</v>
@@ -5803,7 +5833,7 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
@@ -5821,16 +5851,16 @@
         <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I40" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K40" t="s">
         <v>36</v>
@@ -5842,10 +5872,10 @@
         <v>36</v>
       </c>
       <c r="N40" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O40" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P40" t="s">
         <v>36</v>
@@ -5854,13 +5884,13 @@
         <v>36</v>
       </c>
       <c r="R40" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="S40" t="s">
         <v>36</v>
       </c>
       <c r="T40" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="U40" t="s">
         <v>36</v>
@@ -5872,7 +5902,7 @@
         <v>36</v>
       </c>
       <c r="X40" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Y40" t="s">
         <v>36</v>
@@ -5907,7 +5937,7 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
@@ -5925,19 +5955,19 @@
         <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H41" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I41" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J41" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K41" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L41" t="s">
         <v>36</v>
@@ -5946,10 +5976,10 @@
         <v>36</v>
       </c>
       <c r="N41" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O41" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P41" t="s">
         <v>36</v>
@@ -5958,13 +5988,13 @@
         <v>36</v>
       </c>
       <c r="R41" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="S41" t="s">
         <v>36</v>
       </c>
       <c r="T41" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="U41" t="s">
         <v>36</v>
@@ -5976,7 +6006,7 @@
         <v>36</v>
       </c>
       <c r="X41" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Y41" t="s">
         <v>36</v>
@@ -6011,7 +6041,7 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
@@ -6029,19 +6059,19 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H42" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I42" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J42" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K42" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L42" t="s">
         <v>36</v>
@@ -6050,10 +6080,10 @@
         <v>36</v>
       </c>
       <c r="N42" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O42" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P42" t="s">
         <v>36</v>
@@ -6062,13 +6092,13 @@
         <v>36</v>
       </c>
       <c r="R42" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="S42" t="s">
         <v>36</v>
       </c>
       <c r="T42" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="U42" t="s">
         <v>36</v>
@@ -6080,7 +6110,7 @@
         <v>36</v>
       </c>
       <c r="X42" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Y42" t="s">
         <v>36</v>
@@ -6121,494 +6151,503 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FA2"/>
+  <dimension ref="A1:FD2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="S1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="T1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="U1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="V1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="W1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="X1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Y1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Z1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AA1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AB1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AC1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AD1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AE1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AF1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AG1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AH1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AI1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AJ1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AK1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AL1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AO1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AP1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AQ1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AR1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AS1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AT1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AU1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AV1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AW1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AX1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AY1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AZ1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="BA1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="BB1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="BC1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="BD1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="BE1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="BF1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="BG1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="BH1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="BI1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="BJ1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="BK1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="BL1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="BM1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="BN1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BO1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="BP1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BQ1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="BR1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BS1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="BT1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BU1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="BV1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="BW1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="BX1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="BY1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BZ1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="CA1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="CB1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="CC1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="CD1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="CE1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="CF1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="CG1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="CH1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="CI1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="CJ1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="CK1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="CL1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="CM1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="CN1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="CO1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="CP1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="CQ1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="CR1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="CS1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="CT1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="CU1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="CV1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="CW1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="CX1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="CY1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="CZ1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="DA1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="DB1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="DC1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="DD1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="DE1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="DF1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="DG1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="DH1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="DI1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="DJ1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="DK1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="DL1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="DM1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="DN1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="DO1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="DP1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="DQ1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="DR1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="DS1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="DT1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="DU1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="DV1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="DW1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="DX1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="DY1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="DZ1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="EA1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="EB1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="EC1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="ED1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="EE1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="EF1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="EG1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="EH1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="EI1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="EJ1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="EK1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="EL1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="EM1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="EN1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="EO1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="EP1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="EQ1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="ER1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="ES1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="ET1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="EU1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="EV1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="EW1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="EX1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="EY1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="EZ1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="FA1" t="s">
-        <v>408</v>
+        <v>410</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>411</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>412</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D2" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -6620,16 +6659,16 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K2" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="L2" t="s">
         <v>36</v>
@@ -6644,7 +6683,7 @@
         <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q2" t="s">
         <v>36</v>
@@ -6656,417 +6695,426 @@
         <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="U2" t="s">
         <v>36</v>
       </c>
       <c r="V2" t="s">
+        <v>422</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>424</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>425</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>426</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>427</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>430</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>431</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>432</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>435</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>436</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>437</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>438</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>439</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>440</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>441</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>442</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>443</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>444</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
         <v>417</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>418</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>419</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>420</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>421</v>
-      </c>
-      <c r="AP2" t="s">
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>445</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>446</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>447</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>448</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>449</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>450</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>451</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>452</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>453</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>454</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>422</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>423</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>424</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>425</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>426</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>427</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>428</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>429</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>430</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>431</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>432</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>433</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>434</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>435</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>412</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>436</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>437</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>438</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>439</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>440</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>441</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>442</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>443</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>444</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>417</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>36</v>
-      </c>
       <c r="ES2" t="s">
-        <v>445</v>
+        <v>36</v>
       </c>
       <c r="ET2" t="s">
-        <v>446</v>
+        <v>36</v>
       </c>
       <c r="EU2" t="s">
-        <v>447</v>
+        <v>36</v>
       </c>
       <c r="EV2" t="s">
-        <v>36</v>
+        <v>455</v>
       </c>
       <c r="EW2" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="EX2" t="s">
-        <v>36</v>
+        <v>457</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>36</v>
+        <v>458</v>
       </c>
       <c r="FA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7086,10 +7134,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C1" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Echinodermata.xlsx
+++ b/data/dataPaper-I-in/arphified/Echinodermata.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="454">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -906,15 +906,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>suborder</t>
-  </si>
-  <si>
-    <t>infraorder</t>
-  </si>
-  <si>
-    <t>superfamily</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -1257,9 +1248,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>${iNaturalistTaxonId}</t>
-  </si>
-  <si>
     <t>${gbifOccurrenceID}</t>
   </si>
   <si>
@@ -1302,15 +1290,6 @@
     <t>${order}</t>
   </si>
   <si>
-    <t>${suborder}</t>
-  </si>
-  <si>
-    <t>${infraorder}</t>
-  </si>
-  <si>
-    <t>${superfamily}</t>
-  </si>
-  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -1320,7 +1299,7 @@
     <t>${subgenus}</t>
   </si>
   <si>
-    <t>${summary.Author}</t>
+    <t>${summary.authority}</t>
   </si>
   <si>
     <t>Galiano Island</t>
@@ -6151,970 +6130,946 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FD2"/>
+  <dimension ref="A1:EZ2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="S1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="U1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="V1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="W1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="X1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Y1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AB1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AC1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AD1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AE1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AH1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AI1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AP1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AQ1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AR1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AS1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AT1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AU1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AV1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AW1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AX1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AY1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AZ1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="BA1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BB1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="BC1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BD1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="BE1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BF1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="BG1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="BH1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="BI1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="BJ1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="BK1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BL1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BM1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="BN1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="BO1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="BP1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BQ1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="BR1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="BS1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="BT1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="BU1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="BV1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="BW1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BX1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BY1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="BZ1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="CA1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="CB1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="CC1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="CD1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CE1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="CF1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CG1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CH1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CI1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CJ1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="CK1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="CL1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="CM1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="CN1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="CO1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="CP1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="CQ1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="CR1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="CS1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="CT1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="CU1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="CV1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="CW1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="CX1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="CY1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="CZ1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="DA1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="DB1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="DC1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="DD1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="DE1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="DF1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="DG1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="DH1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="DI1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="DJ1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="DK1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="DL1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="DM1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="DN1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="DO1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="DP1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="DQ1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="DR1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="DS1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="DT1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="DU1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="DV1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="DW1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="DX1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="DY1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="DZ1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="EA1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="EB1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="EC1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="ED1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="EE1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="EF1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="EG1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="EH1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="EI1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="EJ1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="EK1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="EL1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="EM1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="EN1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="EO1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="EP1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="EQ1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="ER1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="ES1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="ET1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="EU1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="EV1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="EW1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="EX1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="EY1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="EZ1" t="s">
-        <v>409</v>
-      </c>
-      <c r="FA1" t="s">
         <v>410</v>
       </c>
-      <c r="FB1" t="s">
+    </row>
+    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>411</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="C2" t="s">
         <v>412</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>414</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>415</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>416</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>417</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>418</v>
       </c>
-      <c r="K2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>419</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>420</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>421</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AN2" t="s">
         <v>422</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AO2" t="s">
         <v>423</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AP2" t="s">
         <v>424</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>425</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>426</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>427</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
         <v>428</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>429</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BK2" t="s">
         <v>430</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BL2" t="s">
         <v>431</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BM2" t="s">
         <v>432</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
         <v>433</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
         <v>434</v>
       </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
         <v>435</v>
       </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN2" t="s">
+      <c r="CH2" t="s">
         <v>436</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>437</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>413</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
         <v>438</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
         <v>439</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
         <v>440</v>
       </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
+      <c r="DW2" t="s">
         <v>441</v>
       </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
         <v>442</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="EA2" t="s">
         <v>443</v>
       </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
+      <c r="EB2" t="s">
         <v>444</v>
       </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>417</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE2" t="s">
         <v>445</v>
       </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DX2" t="s">
+      <c r="EF2" t="s">
         <v>446</v>
       </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EG2" t="s">
         <v>447</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>418</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>448</v>
       </c>
-      <c r="EB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
+      <c r="ES2" t="s">
         <v>449</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="ET2" t="s">
         <v>450</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EV2" t="s">
         <v>451</v>
       </c>
-      <c r="EG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>452</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>453</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>454</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>422</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>455</v>
-      </c>
       <c r="EW2" t="s">
-        <v>456</v>
+        <v>36</v>
       </c>
       <c r="EX2" t="s">
-        <v>457</v>
+        <v>36</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>458</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7134,10 +7089,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Echinodermata.xlsx
+++ b/data/dataPaper-I-in/arphified/Echinodermata.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="452">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -912,9 +912,6 @@
     <t>genus</t>
   </si>
   <si>
-    <t>subgenus</t>
-  </si>
-  <si>
     <t>specificEpithet</t>
   </si>
   <si>
@@ -1294,9 +1291,6 @@
   </si>
   <si>
     <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
   </si>
   <si>
     <t>${summary.authority}</t>
@@ -6130,10 +6124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EZ2"/>
+  <dimension ref="A1:EY2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>255</v>
       </c>
@@ -6599,466 +6593,463 @@
       <c r="EY1" t="s">
         <v>409</v>
       </c>
-      <c r="EZ1" t="s">
+    </row>
+    <row r="2" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>411</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>412</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>413</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>414</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>415</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>416</v>
       </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>417</v>
       </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>418</v>
       </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>419</v>
       </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>420</v>
       </c>
-      <c r="AG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>421</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>422</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>423</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>424</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>425</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
         <v>426</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
         <v>427</v>
       </c>
-      <c r="AT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
+      <c r="BJ2" t="s">
         <v>428</v>
       </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>429</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>430</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
         <v>431</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
         <v>432</v>
       </c>
-      <c r="BN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
         <v>433</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
+      <c r="CG2" t="s">
         <v>434</v>
       </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
         <v>435</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>412</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
         <v>436</v>
       </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
         <v>437</v>
       </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>413</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
         <v>438</v>
       </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
+      <c r="DV2" t="s">
         <v>439</v>
       </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
         <v>440</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DZ2" t="s">
         <v>441</v>
       </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EA2" t="s">
         <v>442</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
         <v>443</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EE2" t="s">
         <v>444</v>
       </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
+      <c r="EF2" t="s">
         <v>445</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>417</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
         <v>446</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="ER2" t="s">
         <v>447</v>
       </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>418</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
+      <c r="ES2" t="s">
         <v>448</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="ET2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU2" t="s">
         <v>449</v>
       </c>
-      <c r="ET2" t="s">
-        <v>450</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
       <c r="EV2" t="s">
-        <v>451</v>
+        <v>36</v>
       </c>
       <c r="EW2" t="s">
         <v>36</v>
@@ -7067,9 +7058,6 @@
         <v>36</v>
       </c>
       <c r="EY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EZ2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7089,10 +7077,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
